--- a/TCER.xlsx
+++ b/TCER.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\git\CaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2EEF0-3AEB-4184-B748-DCA3DBF4C07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8D050-F927-4E85-A692-216F0B2A5B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductCatalogService" sheetId="1" r:id="rId1"/>
+    <sheet name="InventoryService" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>Req #</t>
   </si>
@@ -97,13 +98,70 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>InventoryItemDao</t>
+  </si>
+  <si>
+    <t>InventoryItemService</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>findByCode(null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> getInventoryByProductCode(existed code)</t>
+  </si>
+  <si>
+    <t>inventory withmatching code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> getInventoryByProductCode(non existed code)</t>
+  </si>
+  <si>
+    <t>null inventory object</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> getInventoryByProductCode(null)</t>
+  </si>
+  <si>
+    <t>Product with matching code with updated quantity</t>
+  </si>
+  <si>
+    <t>updateQuantityByProductCode(not existed code, int availableQuantity)</t>
+  </si>
+  <si>
+    <t>updateQuantityByProductCode(existed code, int availableQuantity)</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>updateQuantityByProductCode(existed code, negative availableQuantity)</t>
+  </si>
+  <si>
+    <t>updateQuantityByProductCode(null,null)</t>
+  </si>
+  <si>
+    <t>NumberFormatException</t>
+  </si>
+  <si>
+    <t>findByProductCode(String existedcode)</t>
+  </si>
+  <si>
+    <t>inventory with matching code</t>
+  </si>
+  <si>
+    <t>findByProductCode(Stringnon existedcode)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +173,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,47 +599,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -583,33 +647,33 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -617,24 +681,273 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D90E98-FC4C-41D8-AA90-92B270CC6DD3}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TCER.xlsx
+++ b/TCER.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagal\git\CaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8D050-F927-4E85-A692-216F0B2A5B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E32C7D6-8642-4BEA-892E-D4831F7C2000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductCatalogService" sheetId="1" r:id="rId1"/>
     <sheet name="InventoryService" sheetId="2" r:id="rId2"/>
+    <sheet name="OrderDao" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
   <si>
     <t>Req #</t>
   </si>
@@ -155,6 +156,48 @@
   </si>
   <si>
     <t>findByProductCode(Stringnon existedcode)</t>
+  </si>
+  <si>
+    <t>OrderDao</t>
+  </si>
+  <si>
+    <t>OrderService</t>
+  </si>
+  <si>
+    <t>saveOrder(1001,"cust1@gmail.com","banglore",new ArrayList&lt;OrderItem&gt;({10001,"P001",25,3256}))</t>
+  </si>
+  <si>
+    <t>1001,"cust1@gmail.com","banglore",new ArrayList&lt;OrderItem&gt;({10001,"P001",25,3256}))</t>
+  </si>
+  <si>
+    <t>saveOrder(1001,"cust1@gmail.com","banglore",emptyList&lt;&gt;)</t>
+  </si>
+  <si>
+    <t>null OrderObject</t>
+  </si>
+  <si>
+    <t>saveOrder(null,null,null,null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null </t>
+  </si>
+  <si>
+    <t>findOrderById(1001)</t>
+  </si>
+  <si>
+    <t>findOrderById(1005)</t>
+  </si>
+  <si>
+    <t>save(1001,"cust1@gmail.com","banglore",new ArrayList&lt;OrderItem&gt;({10001,"P001",25,3256}))</t>
+  </si>
+  <si>
+    <t>save(null)</t>
+  </si>
+  <si>
+    <t>findById(1001)</t>
+  </si>
+  <si>
+    <t>findById(1005)</t>
   </si>
 </sst>
 </file>
@@ -724,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D90E98-FC4C-41D8-AA90-92B270CC6DD3}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,4 +993,208 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353ADDDC-1D0C-4D25-B0C3-532F0D4D717B}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>